--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>460322.8487839151</v>
+        <v>449741.2388408919</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707513</v>
+        <v>12908190.36482257</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901942</v>
+        <v>3555535.184291204</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7094986.130198776</v>
+        <v>7525108.453126999</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>91.4822098556786</v>
+        <v>182.0030003302919</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399293</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8833258811976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>391.5810164196564</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>60.17536650555325</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2635869532361</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1193,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>291.5817181621354</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>104.7223743992564</v>
       </c>
     </row>
     <row r="9">
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.9086344760393</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1373,19 +1375,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>111.1449258285144</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>184.6607340023738</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1607,19 +1609,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>91.48220985567947</v>
+        <v>388.5279337815342</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526347924</v>
+        <v>98.15366458399245</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1853,16 +1855,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>78.26653139842092</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2005,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>164.1839764102928</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.0596678020106</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>127.6924156730739</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>81.83048041442868</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.23926627513917</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>192.8717243028899</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3083,7 +3085,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>260.4446813871633</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3433,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.7612727945905</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>121.5810861820461</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>106.858786719141</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>77.34040729634128</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>92.38090300811169</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4138,10 +4140,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>26.71692503560848</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.0056192934833</v>
+        <v>988.0056192934837</v>
       </c>
       <c r="C2" t="n">
-        <v>988.0056192934833</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="D2" t="n">
-        <v>988.0056192934833</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="E2" t="n">
-        <v>562.0286794413408</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="F2" t="n">
-        <v>136.904497630741</v>
+        <v>561.1048893067839</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L2" t="n">
-        <v>549.9383681074139</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091852</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091852</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
         <v>1651.26943807629</v>
@@ -4373,7 +4375,7 @@
         <v>1813.191253630123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.853983585013</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133208</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308255</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461105</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190478</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.653486901952</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>469.599715119556</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818656</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>423.6702648437774</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>695.3677541233685</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>695.3677541233685</v>
+        <v>287.7093087981018</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.560872408797</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M3" t="n">
-        <v>1592.226407393234</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N3" t="n">
-        <v>2142.891942377672</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O3" t="n">
-        <v>2142.891942377672</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377672</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377672</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462376</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.58700502363</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321308</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240945</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380211</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213428</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980091</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117385</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>143.6433407906545</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4495,7 +4497,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
@@ -4513,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V4" t="n">
-        <v>1943.199785070404</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1725.007578113641</v>
+        <v>471.3989550359474</v>
       </c>
       <c r="C5" t="n">
-        <v>1298.106848126941</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="D5" t="n">
-        <v>874.8142273119413</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="E5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G5" t="n">
         <v>44.49822504924752</v>
@@ -4565,52 +4567,52 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336854</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336854</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596035</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580473</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335516</v>
+        <v>2164.128053971918</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335516</v>
+        <v>1943.202483016551</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335516</v>
+        <v>1684.847573612963</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335516</v>
+        <v>1684.847573612963</v>
       </c>
       <c r="W5" t="n">
-        <v>2120.543958335516</v>
+        <v>1288.45622391331</v>
       </c>
       <c r="X5" t="n">
-        <v>2120.543958335516</v>
+        <v>876.7362250810571</v>
       </c>
       <c r="Y5" t="n">
-        <v>2120.543958335516</v>
+        <v>471.3989550359474</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
+        <v>44.49822504924752</v>
+      </c>
+      <c r="L6" t="n">
         <v>595.1637600336854</v>
       </c>
-      <c r="L6" t="n">
-        <v>1145.829295018124</v>
-      </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N6" t="n">
-        <v>1145.829295018124</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.9957668907073</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>374.0232037696233</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D7" t="n">
-        <v>210.706430896394</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2041.81672018638</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1761.632271686684</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1479.920804294713</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1205.068400467226</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>962.5045039130309</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>736.161735602773</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>894.6915758509472</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="C8" t="n">
-        <v>467.7908458642473</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="D8" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="E8" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="F8" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M8" t="n">
-        <v>595.1637600336857</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W8" t="n">
-        <v>1314.539940142477</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X8" t="n">
-        <v>1314.539940142477</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="Y8" t="n">
-        <v>1314.539940142477</v>
+        <v>781.6025372422928</v>
       </c>
     </row>
     <row r="9">
@@ -4863,40 +4865,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.1145108219148</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>712.1419477008308</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>548.8251748276015</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2099.751015617891</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1818.03954822592</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1543.187144398433</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1300.623247844238</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1074.28047953398</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.536894229055</v>
+        <v>875.7380174464988</v>
       </c>
       <c r="C11" t="n">
-        <v>1191.636164242355</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="D11" t="n">
-        <v>768.3435434273551</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E11" t="n">
-        <v>342.3666035752127</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F11" t="n">
-        <v>342.3666035752127</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G11" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>549.9383681074144</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9383681074144</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M11" t="n">
-        <v>549.9383681074144</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N11" t="n">
-        <v>549.9383681074144</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O11" t="n">
-        <v>1100.603903091853</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W11" t="n">
-        <v>2224.911252462377</v>
+        <v>2112.643650615391</v>
       </c>
       <c r="X11" t="n">
-        <v>2224.911252462377</v>
+        <v>1700.923651783139</v>
       </c>
       <c r="Y11" t="n">
-        <v>2038.385258520585</v>
+        <v>1295.586381738029</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J12" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K12" t="n">
-        <v>323.6423572907505</v>
+        <v>838.37484378254</v>
       </c>
       <c r="L12" t="n">
-        <v>323.6423572907505</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M12" t="n">
-        <v>874.3078922751886</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N12" t="n">
-        <v>1424.973427259627</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O12" t="n">
-        <v>1424.973427259627</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109769</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109769</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109769</v>
+        <v>150.4616153982898</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109769</v>
+        <v>150.4616153982898</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5221,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>988.0056192934842</v>
+        <v>1288.975595211733</v>
       </c>
       <c r="C14" t="n">
-        <v>988.0056192934842</v>
+        <v>862.0748652250334</v>
       </c>
       <c r="D14" t="n">
-        <v>988.0056192934842</v>
+        <v>862.0748652250334</v>
       </c>
       <c r="E14" t="n">
-        <v>562.0286794413418</v>
+        <v>862.0748652250334</v>
       </c>
       <c r="F14" t="n">
-        <v>136.904497630742</v>
+        <v>436.9506834144336</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K14" t="n">
-        <v>595.1637600336857</v>
+        <v>455.358312627159</v>
       </c>
       <c r="L14" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M14" t="n">
-        <v>1145.829295018124</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N14" t="n">
-        <v>1556.689382596036</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.191253630124</v>
+        <v>1708.823959503263</v>
       </c>
       <c r="Y14" t="n">
-        <v>1407.853983585014</v>
+        <v>1708.823959503263</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K15" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L15" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="N15" t="n">
-        <v>1302.520320645319</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="O15" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P15" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q15" t="n">
         <v>1853.185855629757</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>458.7432593109769</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C16" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D16" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E16" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1320.668515703089</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>893.7677857163897</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>470.47516490139</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>44.49822504924753</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>407.101683866143</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>957.7672188505812</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>957.7672188505812</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M17" t="n">
-        <v>1508.432753835019</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>1556.689382596036</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>1556.689382596036</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580474</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>2145.854150039729</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>2145.854150039729</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2145.854150039729</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>2145.854150039729</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2145.854150039729</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>1740.51687999462</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>611.6217160807028</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>494.1158125982075</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>390.2758541134926</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>285.5739203864298</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>3313.89468267283</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>3585.592171952421</v>
       </c>
       <c r="K18" t="n">
-        <v>316.1957143288386</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="L18" t="n">
-        <v>316.1957143288386</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="M18" t="n">
-        <v>866.8612493132769</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="N18" t="n">
-        <v>1417.526784297715</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="O18" t="n">
-        <v>1417.526784297715</v>
+        <v>4176.07709852076</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>4568.970883343944</v>
       </c>
       <c r="Q18" t="n">
-        <v>1853.185855629757</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R18" t="n">
-        <v>1853.185855629757</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1771.861608191012</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1629.98167248869</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.213476408327</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1240.240337547593</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1043.71896038081</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>880.2416141474731</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>740.5487255007655</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>884.1145108219148</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>712.1419477008308</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D19" t="n">
-        <v>548.8251748276015</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>382.616968980455</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>210.7551947550154</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1598.555843480146</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1316.844376088175</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1316.844376088175</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1074.28047953398</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1074.28047953398</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>366.6855125151251</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5835,16 +5837,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418.0715450187581</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>246.0989818976742</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>246.0989818976742</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>246.0989818976742</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3679.785021471328</v>
+        <v>976.2853050154449</v>
       </c>
       <c r="C25" t="n">
-        <v>3507.812458350244</v>
+        <v>976.2853050154449</v>
       </c>
       <c r="D25" t="n">
-        <v>3344.495685477015</v>
+        <v>812.9685321422156</v>
       </c>
       <c r="E25" t="n">
-        <v>3178.287479629868</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3178.287479629868</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4985.440006054935</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4985.440006054935</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>4705.25555755524</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V25" t="n">
-        <v>4423.544090163268</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W25" t="n">
-        <v>4148.691686335781</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X25" t="n">
-        <v>3906.127789781586</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="Y25" t="n">
-        <v>3679.785021471328</v>
+        <v>976.2853050154449</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H26" t="n">
         <v>137.1995846623573</v>
@@ -6224,31 +6226,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
         <v>5010.768376164567</v>
@@ -6266,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6306,22 +6308,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1874.486968420372</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.8534934449018</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1155.589460012876</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>1155.589460012876</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>929.2466917026181</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6454,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H29" t="n">
         <v>137.1995846623573</v>
@@ -6470,40 +6472,40 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6540,16 +6542,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.986740661465</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.801708427964</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C31" t="n">
-        <v>2986.82914530688</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D31" t="n">
-        <v>2934.722642878299</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E31" t="n">
-        <v>2934.722642878299</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878299</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>4871.796322517326</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X31" t="n">
-        <v>3575.310445450287</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y31" t="n">
-        <v>3348.967677140029</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
         <v>435.0679631883225</v>
@@ -6698,37 +6700,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>786.1869982294937</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1715.81204584877</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2720.098147267829</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3696.34920575453</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6780,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3918.135197142812</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C34" t="n">
-        <v>3746.162634021728</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D34" t="n">
-        <v>3582.845861148498</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E34" t="n">
-        <v>3416.637655301352</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F34" t="n">
-        <v>3244.775881075912</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G34" t="n">
-        <v>3078.518911370144</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>4852.060234546818</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W34" t="n">
-        <v>4577.207830719331</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X34" t="n">
-        <v>4334.643934165136</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y34" t="n">
-        <v>4108.301165854878</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7017,13 +7019,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.529878172021</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X37" t="n">
-        <v>1587.529878172021</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7172,46 +7174,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>4362.434577686964</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1832.396244838396</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1726.151869599499</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1483.587973045304</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7418,28 +7420,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7491,19 +7493,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>692.7876399741681</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>730.647150085061</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
         <v>1446.844867123559</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
         <v>102.3027134058285</v>
@@ -7567,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7594,25 +7596,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>988.0056192934842</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>561.1048893067843</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>137.8122684917846</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>44.49822504924753</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>44.49822504924753</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>44.49822504924753</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>407.101683866143</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505812</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>957.7672188505812</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>957.7672188505812</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>1218.160237973755</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>1218.160237973755</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>1768.825772958194</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2224.911252462377</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.911252462377</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.911252462377</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2224.911252462377</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1813.191253630124</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1407.853983585014</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>595.1637600336857</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1145.829295018124</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>1302.520320645319</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1302.520320645319</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1853.185855629757</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>882.9456501749507</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>710.9730870538667</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>710.9730870538667</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462376</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462376</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>2224.911252462376</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>1073.111618887016</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L2" t="n">
-        <v>548.8576414812758</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>181.8548408418183</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>268.0669951958124</v>
       </c>
       <c r="L3" t="n">
-        <v>372.2051051843588</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104032</v>
@@ -8222,22 +8224,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>452.4414523720697</v>
+        <v>204.9191049629861</v>
       </c>
       <c r="N5" t="n">
         <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298235</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748073</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>98.59786501766931</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800522</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>178.8848775931272</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L9" t="n">
-        <v>180.7888499740227</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>180.0440798263965</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
-        <v>593.8031749258255</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>549.8528999481832</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>454.308647639304</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>591.9924139104035</v>
+        <v>450.7747902674471</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>452.289812307084</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9003,13 +9005,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>462.4589018454972</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L15" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9018,13 +9020,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>268.8396510847016</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>952.685833629606</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>86.02369229001789</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>461.8305092169925</v>
+        <v>418.6332501171362</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,13 +9409,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735953</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9485,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>59.6191348202578</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>507.2052537942219</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10430,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10440,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>451.7951195382844</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10665,16 +10667,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>408.3532410469382</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116015</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574439</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>475.3690562152009</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11066,7 +11068,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11075,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>280.9020403556215</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>61.41381912716452</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104035</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>300.3028744740158</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>179.6167914733347</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>308.8134619307672</v>
+        <v>218.2926714561539</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22708,22 +22710,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>63.52994056050406</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22755,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.06886422895838</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>43.14825468003774</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,13 +22944,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22960,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -23033,13 +23035,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>100.8457180405212</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>296.5615229454022</v>
       </c>
     </row>
     <row r="9">
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -23233,10 +23235,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>153.4739695386594</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>281.2825103741422</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.6231633422848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>65.23940003763329</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>308.8134619307664</v>
+        <v>11.76773800491168</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23662,16 +23664,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>165.7641609568373</v>
+        <v>71.98949189919273</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>140.4497838473923</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>113.198627604406</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.20464122293444</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24364,19 +24366,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>36.85370811560109</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>86.60321659162781</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.0250427498058</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>79.2321554863222</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>18.44967133088807</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.31806783256491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>157.3132665360053</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
     </row>
     <row r="41">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>200.0421967183575</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>329.3362674455093</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>137.8291987530665</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466491.7412913912</v>
+        <v>466491.7412913911</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466491.7412913913</v>
+        <v>466491.7412913911</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>466491.7412913913</v>
+        <v>466491.7412913912</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466491.7412913913</v>
+        <v>466491.7412913912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>466491.7412913911</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773853.2175921816</v>
+        <v>773853.2175921818</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773853.2175921818</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773853.2175921816</v>
+        <v>773853.2175921818</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773853.2175921818</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466491.7412913913</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160941.5819322669</v>
+        <v>160941.581932267</v>
       </c>
       <c r="C2" t="n">
         <v>160941.581932267</v>
       </c>
       <c r="D2" t="n">
-        <v>160941.581932267</v>
+        <v>160941.5819322671</v>
       </c>
       <c r="E2" t="n">
         <v>160941.581932267</v>
@@ -26326,34 +26328,34 @@
         <v>160941.581932267</v>
       </c>
       <c r="G2" t="n">
-        <v>160941.581932267</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="H2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="I2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="J2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="K2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
         <v>266964.4414902874</v>
       </c>
       <c r="M2" t="n">
-        <v>266964.4414902872</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="O2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="P2" t="n">
-        <v>160941.581932267</v>
+        <v>266964.4414902874</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>198041.7898901689</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173883.8490937447</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,16 +26423,16 @@
         <v>34949.10619715249</v>
       </c>
       <c r="D4" t="n">
+        <v>34949.10619715248</v>
+      </c>
+      <c r="E4" t="n">
         <v>34949.1061971525</v>
       </c>
-      <c r="E4" t="n">
-        <v>34949.10619715251</v>
-      </c>
       <c r="F4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="G4" t="n">
-        <v>34949.1061971525</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26439,25 +26441,25 @@
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="M4" t="n">
+        <v>58064.51385187962</v>
+      </c>
+      <c r="N4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58064.51385187963</v>
+      </c>
+      <c r="P4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="M4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34949.1061971525</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
         <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-127858.5087170508</v>
       </c>
       <c r="C6" t="n">
-        <v>58546.22469768644</v>
+        <v>58546.22469768638</v>
       </c>
       <c r="D6" t="n">
-        <v>58546.22469768641</v>
+        <v>58546.2246976865</v>
       </c>
       <c r="E6" t="n">
-        <v>92173.82469768634</v>
+        <v>92173.82469768637</v>
       </c>
       <c r="F6" t="n">
-        <v>92173.82469768642</v>
+        <v>92173.82469768637</v>
       </c>
       <c r="G6" t="n">
-        <v>92173.82469768639</v>
+        <v>-66891.92444019081</v>
       </c>
       <c r="H6" t="n">
-        <v>-63802.27453753151</v>
+        <v>131149.8654499781</v>
       </c>
       <c r="I6" t="n">
-        <v>131149.8654499781</v>
+        <v>131149.865449978</v>
       </c>
       <c r="J6" t="n">
-        <v>-14383.80448483842</v>
+        <v>-14383.80448483853</v>
       </c>
       <c r="K6" t="n">
         <v>131149.865449978</v>
       </c>
       <c r="L6" t="n">
+        <v>131149.8654499781</v>
+      </c>
+      <c r="M6" t="n">
         <v>131149.865449978</v>
-      </c>
-      <c r="M6" t="n">
-        <v>131149.8654499779</v>
       </c>
       <c r="N6" t="n">
         <v>131149.865449978</v>
       </c>
       <c r="O6" t="n">
-        <v>131149.865449978</v>
+        <v>-42733.98364376678</v>
       </c>
       <c r="P6" t="n">
-        <v>92173.82469768636</v>
+        <v>131149.8654499781</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>556.227813115594</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>722.5561044572627</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L2" t="n">
-        <v>510.5455990486529</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155939</v>
+        <v>144.279479031587</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="L3" t="n">
-        <v>349.6900184701293</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155939</v>
@@ -34942,22 +34944,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>415.0101894726379</v>
+        <v>167.4878420635542</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155939</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>75.42597529544709</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>533.7539620806205</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P11" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>432.5378064344753</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>440.0596680121639</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>914.3737911969831</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>48.74406945557187</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>440.0596680121639</v>
+        <v>396.8624089123075</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,13 +36129,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>844.8942246391492</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>36.8720965312793</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>485.8622255806802</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>430.0242783334557</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013702</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439022</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37795,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.2278131155941</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>263.0232516395698</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>158.2737632597931</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449741.2388408919</v>
+        <v>446418.4731430312</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3555535.184291204</v>
+        <v>3555535.184291205</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>182.0030003302919</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>144.8897721145306</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,13 +822,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>98.15366458399293</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>60.17536650555325</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>24.1295862066214</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>123.0673923170403</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>96.44420510686372</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>392.0999618615181</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.7223743992564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.9391228140505</v>
       </c>
       <c r="V10" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>115.2323879040575</v>
       </c>
       <c r="W11" t="n">
-        <v>111.1449258285144</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>104.9037564455519</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>212.4740551539271</v>
       </c>
       <c r="G14" t="n">
-        <v>388.5279337815342</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>98.15366458399245</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155064</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2134,13 +2134,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399269</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.6924156730739</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2812,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>192.8717243028899</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3031,7 +3031,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3429,13 +3429,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.858786719141</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>26.71692503560848</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4194,10 +4194,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>988.0056192934837</v>
+        <v>2078.557947296183</v>
       </c>
       <c r="C2" t="n">
-        <v>561.1048893067839</v>
+        <v>1651.657217309483</v>
       </c>
       <c r="D2" t="n">
-        <v>561.1048893067839</v>
+        <v>1228.364596494484</v>
       </c>
       <c r="E2" t="n">
-        <v>561.1048893067839</v>
+        <v>802.3876566423412</v>
       </c>
       <c r="F2" t="n">
-        <v>561.1048893067839</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G2" t="n">
         <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924752</v>
@@ -4333,19 +4333,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505811</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505811</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M2" t="n">
-        <v>957.7672188505811</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>957.767218850581</v>
       </c>
       <c r="O2" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P2" t="n">
         <v>1651.26943807629</v>
@@ -4366,16 +4366,16 @@
         <v>2224.911252462376</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462376</v>
+        <v>2078.557947296183</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462376</v>
+        <v>2078.557947296183</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.191253630123</v>
+        <v>2078.557947296183</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.853983585014</v>
+        <v>2078.557947296183</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
         <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
         <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981018</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825399</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825399</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825399</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825399</v>
+        <v>756.3555336978368</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.6159039117385</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6433407906545</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D4" t="n">
-        <v>44.49822504924748</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E4" t="n">
-        <v>44.49822504924748</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4497,7 +4497,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>1811.436857207411</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U4" t="n">
-        <v>1531.252408707715</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V4" t="n">
-        <v>1249.540941315744</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W4" t="n">
-        <v>974.688537488257</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X4" t="n">
-        <v>732.1246409340621</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.7818726238041</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.3989550359474</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C5" t="n">
-        <v>44.49822504924752</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D5" t="n">
-        <v>44.49822504924752</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E5" t="n">
-        <v>44.49822504924752</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924752</v>
@@ -4570,49 +4570,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="L5" t="n">
-        <v>957.767218850581</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074139</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2164.128053971918</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>1943.202483016551</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1684.847573612963</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1684.847573612963</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="W5" t="n">
-        <v>1288.45622391331</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="X5" t="n">
-        <v>876.7362250810571</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y5" t="n">
-        <v>471.3989550359474</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336854</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="M6" t="n">
-        <v>838.37484378254</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="N6" t="n">
-        <v>838.37484378254</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>838.37484378254</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>144.2667933089716</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>144.2667933089716</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924752</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.6025372422928</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="C8" t="n">
-        <v>781.6025372422928</v>
+        <v>892.9150276748471</v>
       </c>
       <c r="D8" t="n">
-        <v>781.6025372422928</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="E8" t="n">
-        <v>781.6025372422928</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422928</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1674.245717477938</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.618387380149</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976561</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V8" t="n">
-        <v>1283.774063102811</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W8" t="n">
-        <v>887.3827134031578</v>
+        <v>1724.48339079863</v>
       </c>
       <c r="X8" t="n">
-        <v>887.3827134031578</v>
+        <v>1312.763391966377</v>
       </c>
       <c r="Y8" t="n">
-        <v>781.6025372422928</v>
+        <v>1312.763391966377</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764434</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608814</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L9" t="n">
-        <v>1302.520320645319</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>2177.872639149549</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U10" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.461679623578</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1482.750212231607</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>1207.89780840412</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>965.333911849925</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>738.9911435396671</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>875.7380174464988</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="C11" t="n">
-        <v>448.8372874597989</v>
+        <v>1318.891967526989</v>
       </c>
       <c r="D11" t="n">
-        <v>448.8372874597989</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E11" t="n">
-        <v>448.8372874597989</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F11" t="n">
-        <v>448.8372874597989</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K11" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L11" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M11" t="n">
-        <v>957.767218850581</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N11" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O11" t="n">
-        <v>2059.098288819457</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462376</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="W11" t="n">
-        <v>2112.643650615391</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="X11" t="n">
-        <v>1700.923651783139</v>
+        <v>1745.792697513689</v>
       </c>
       <c r="Y11" t="n">
-        <v>1295.586381738029</v>
+        <v>1745.792697513689</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K12" t="n">
-        <v>838.37484378254</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L12" t="n">
-        <v>838.37484378254</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M12" t="n">
-        <v>838.37484378254</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N12" t="n">
-        <v>838.37484378254</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O12" t="n">
-        <v>838.37484378254</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.7509513926031</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C13" t="n">
-        <v>313.7783882715191</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D13" t="n">
-        <v>150.4616153982898</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4616153982898</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5226,25 +5226,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462376</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T13" t="n">
-        <v>1981.571904688275</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U13" t="n">
-        <v>1701.38745618858</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V13" t="n">
-        <v>1419.675988796609</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.823584969122</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X13" t="n">
-        <v>902.2596884149267</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.9169201046687</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1288.975595211733</v>
+        <v>961.3259237170035</v>
       </c>
       <c r="C14" t="n">
-        <v>862.0748652250334</v>
+        <v>961.3259237170035</v>
       </c>
       <c r="D14" t="n">
-        <v>862.0748652250334</v>
+        <v>961.3259237170035</v>
       </c>
       <c r="E14" t="n">
-        <v>862.0748652250334</v>
+        <v>961.3259237170035</v>
       </c>
       <c r="F14" t="n">
-        <v>436.9506834144336</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G14" t="n">
-        <v>44.49822504924752</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>1006.023847611597</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N14" t="n">
-        <v>1556.689382596035</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.354917580473</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580473</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V14" t="n">
-        <v>2120.543958335516</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W14" t="n">
-        <v>2120.543958335516</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X14" t="n">
-        <v>1708.823959503263</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="Y14" t="n">
-        <v>1708.823959503263</v>
+        <v>961.3259237170035</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K15" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L15" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M15" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N15" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O15" t="n">
-        <v>838.37484378254</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5424,16 +5424,16 @@
         <v>143.643340790654</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3313.89468267283</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3585.592171952421</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>4176.07709852076</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L18" t="n">
-        <v>4176.07709852076</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M18" t="n">
-        <v>4176.07709852076</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N18" t="n">
-        <v>4176.07709852076</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O18" t="n">
-        <v>4176.07709852076</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="P18" t="n">
-        <v>4568.970883343944</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="Q18" t="n">
-        <v>5033.116360206724</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5752,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,25 +5761,25 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3950.770911629315</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>976.2853050154449</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>976.2853050154449</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>812.9685321422156</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.628073325703</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>976.2853050154449</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6268,7 +6268,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
         <v>2960.549862354846</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1874.486968420372</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6478,22 +6478,22 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6505,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291426</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517326</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4871.796322517326</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4871.796322517326</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4434.412502424859</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
         <v>2113.800768076616</v>
@@ -6688,7 +6688,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
         <v>435.0679631883225</v>
@@ -6718,34 +6718,34 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1529.586448057074</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.315149158289</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,49 +7399,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291426</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7490,28 +7490,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>1180.414480198223</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L44" t="n">
-        <v>2110.0395278175</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>2110.0395278175</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7727,25 +7727,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.289251381874</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.844867123559</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>882.9456501749507</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>710.9730870538667</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>710.9730870538667</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1542.018283751469</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.018283751469</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1299.454387197274</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>1073.111618887016</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876108</v>
       </c>
       <c r="P2" t="n">
-        <v>181.8548408418183</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958124</v>
+        <v>459.4832504061478</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104032</v>
+        <v>180.0440798263961</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>204.9191049629861</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258253</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298235</v>
+        <v>379.7269667620472</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748073</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
@@ -8315,10 +8315,10 @@
         <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.1852249800522</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931272</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8546,16 +8546,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N11" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
-        <v>86.31943126580316</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>549.8528999481832</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P12" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>450.7747902674471</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>300.4545145390017</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>268.8396510847016</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P15" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>952.685833629606</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9245,13 +9245,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>418.6332501171362</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>418.2396143276235</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9409,13 +9409,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>882.1738474735953</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9971,13 +9971,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>59.6191348202578</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P29" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10445,7 +10445,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>451.7951195382844</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>408.3532410469382</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10682,13 +10682,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>475.3690562152009</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>236.8553498857486</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>280.9020403556215</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>924.1790155406089</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,28 +11375,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>133.9864418936091</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>218.2926714561539</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>209.0247486104824</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22710,13 +22710,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.52994056050406</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22755,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22804,7 +22804,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>43.14825468003774</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>329.7849345183916</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22944,16 +22944,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>47.18544517283286</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181126</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.3274743411384406</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.5615229454022</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>62.44348120064825</v>
       </c>
       <c r="V10" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>238.6821328209555</v>
       </c>
       <c r="W11" t="n">
-        <v>281.2825103741422</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>65.23940003763329</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23466,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23506,13 +23506,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>208.3988848385667</v>
       </c>
       <c r="G14" t="n">
-        <v>11.76773800491168</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23554,16 +23554,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>71.98949189919273</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>71.98949189919239</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>36.85370811560109</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>47.1854451728326</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>79.2321554863222</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>137.8291987530665</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>466491.7412913911</v>
+        <v>466491.7412913912</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>466491.7412913911</v>
+        <v>466491.7412913912</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>466491.7412913912</v>
+        <v>466491.7412913913</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773853.2175921818</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773853.2175921818</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773853.2175921818</v>
+        <v>773853.2175921816</v>
       </c>
     </row>
     <row r="14">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>160941.5819322669</v>
+      </c>
+      <c r="C2" t="n">
+        <v>160941.5819322669</v>
+      </c>
+      <c r="D2" t="n">
         <v>160941.581932267</v>
-      </c>
-      <c r="C2" t="n">
-        <v>160941.581932267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>160941.5819322671</v>
       </c>
       <c r="E2" t="n">
         <v>160941.581932267</v>
@@ -26334,7 +26334,7 @@
         <v>266964.4414902874</v>
       </c>
       <c r="I2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="J2" t="n">
         <v>266964.4414902873</v>
@@ -26343,16 +26343,16 @@
         <v>266964.4414902873</v>
       </c>
       <c r="L2" t="n">
-        <v>266964.4414902874</v>
+        <v>266964.4414902873</v>
       </c>
       <c r="M2" t="n">
         <v>266964.4414902873</v>
       </c>
       <c r="N2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="O2" t="n">
-        <v>266964.4414902873</v>
+        <v>266964.4414902874</v>
       </c>
       <c r="P2" t="n">
         <v>266964.4414902874</v>
@@ -26423,16 +26423,16 @@
         <v>34949.10619715249</v>
       </c>
       <c r="D4" t="n">
-        <v>34949.10619715248</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="E4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="F4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26441,22 +26441,22 @@
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="P4" t="n">
         <v>58064.51385187964</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
         <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-127858.5087170508</v>
+        <v>-128467.5544295405</v>
       </c>
       <c r="C6" t="n">
-        <v>58546.22469768638</v>
+        <v>57937.17898519669</v>
       </c>
       <c r="D6" t="n">
-        <v>58546.2246976865</v>
+        <v>57937.1789851967</v>
       </c>
       <c r="E6" t="n">
-        <v>92173.82469768637</v>
+        <v>91564.77898519671</v>
       </c>
       <c r="F6" t="n">
-        <v>92173.82469768637</v>
+        <v>91564.77898519671</v>
       </c>
       <c r="G6" t="n">
-        <v>-66891.92444019081</v>
+        <v>-66942.95510237513</v>
       </c>
       <c r="H6" t="n">
-        <v>131149.8654499781</v>
+        <v>131098.8347877938</v>
       </c>
       <c r="I6" t="n">
-        <v>131149.865449978</v>
+        <v>131098.8347877937</v>
       </c>
       <c r="J6" t="n">
-        <v>-14383.80448483853</v>
+        <v>-14434.83514702277</v>
       </c>
       <c r="K6" t="n">
-        <v>131149.865449978</v>
+        <v>131098.8347877937</v>
       </c>
       <c r="L6" t="n">
-        <v>131149.8654499781</v>
+        <v>131098.8347877937</v>
       </c>
       <c r="M6" t="n">
-        <v>131149.865449978</v>
+        <v>131098.8347877937</v>
       </c>
       <c r="N6" t="n">
-        <v>131149.865449978</v>
+        <v>131098.8347877937</v>
       </c>
       <c r="O6" t="n">
-        <v>-42733.98364376678</v>
+        <v>-42785.01430595099</v>
       </c>
       <c r="P6" t="n">
-        <v>131149.8654499781</v>
+        <v>131098.8347877937</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>144.2794790315867</v>
       </c>
       <c r="P2" t="n">
-        <v>144.279479031587</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624791</v>
+        <v>437.0840165728145</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>144.2794790315867</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155939</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>167.4878420635542</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155939</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155939</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155939</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>556.2278131155939</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>533.7539620806205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>158.2737632597938</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P11" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P12" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>415.0101894726378</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>245.6677613624794</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>914.3737911969831</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35965,13 +35965,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>396.8624089123075</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>395.492576038645</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36129,13 +36129,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>844.8942246391492</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.8720965312793</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>430.0242783334557</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>200.7306752811506</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8052598432935</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>886.8993927061629</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
